--- a/biology/Zoologie/Carduelis/Carduelis.xlsx
+++ b/biology/Zoologie/Carduelis/Carduelis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Carduelis est un genre de passereaux de la famille des Fringillidae. À la suite d'études phylogéniques, ce genre traditionnel est scindé en quatre genres : Carduelis ne conservant que trois espèces.
 </t>
@@ -513,10 +525,50 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Études phylogéniques
-L'étude phylogénique de Zuccon et al. (2012), montre que le genre Carduelis, tel qu'il est défini traditionnellement, est polyphylétique. Ses espèces sont donc déplacées dans les genres Acanthis (2 espèces), Linaria (4 espèces) et Spinus (20 espèces).
-Liste des espèces
-D'après la classification de référence (version 3.3, 2013) du Congrès ornithologique international (ordre phylogénique) :
+          <t>Études phylogéniques</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'étude phylogénique de Zuccon et al. (2012), montre que le genre Carduelis, tel qu'il est défini traditionnellement, est polyphylétique. Ses espèces sont donc déplacées dans les genres Acanthis (2 espèces), Linaria (4 espèces) et Spinus (20 espèces).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Carduelis</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Carduelis</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>D'après la classification de référence (version 3.3, 2013) du Congrès ornithologique international (ordre phylogénique) :
 Carduelis carduelis – Chardonneret élégant
 Carduelis citrinella – Venturon montagnard
 Carduelis corsicana – Venturon corse</t>
